--- a/artfynd/A 718-2021.xlsx
+++ b/artfynd/A 718-2021.xlsx
@@ -2100,10 +2100,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111251434</v>
+        <v>111251423</v>
       </c>
       <c r="B14" t="n">
-        <v>78612</v>
+        <v>77677</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2112,25 +2112,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6464</v>
+        <v>1249</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2140,10 +2140,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>460452.9763639791</v>
+        <v>460188.7895233887</v>
       </c>
       <c r="R14" t="n">
-        <v>7164846.208533676</v>
+        <v>7164860.82616597</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111251402</v>
+        <v>111251432</v>
       </c>
       <c r="B15" t="n">
-        <v>73696</v>
+        <v>81248</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2228,21 +2228,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>460212.3128264685</v>
+        <v>460622.5513675315</v>
       </c>
       <c r="R15" t="n">
-        <v>7164818.870384302</v>
+        <v>7165027.330594921</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111251423</v>
+        <v>111251420</v>
       </c>
       <c r="B16" t="n">
         <v>77677</v>
@@ -2364,10 +2364,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>460188.7895233887</v>
+        <v>460243.4530616797</v>
       </c>
       <c r="R16" t="n">
-        <v>7164860.82616597</v>
+        <v>7164800.429238674</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111251432</v>
+        <v>111251407</v>
       </c>
       <c r="B17" t="n">
-        <v>81248</v>
+        <v>73696</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2452,21 +2452,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>460622.5513675315</v>
+        <v>460240.5118381025</v>
       </c>
       <c r="R17" t="n">
-        <v>7165027.330594921</v>
+        <v>7164805.620072429</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2548,10 +2548,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111251430</v>
+        <v>111251428</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2564,21 +2564,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2588,10 +2588,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>460188.8289468794</v>
+        <v>460445.0942901828</v>
       </c>
       <c r="R18" t="n">
-        <v>7164863.831099218</v>
+        <v>7164835.148113105</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111251407</v>
+        <v>111251402</v>
       </c>
       <c r="B19" t="n">
         <v>73696</v>
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>460240.5118381025</v>
+        <v>460212.3128264685</v>
       </c>
       <c r="R19" t="n">
-        <v>7164805.620072429</v>
+        <v>7164818.870384302</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2772,10 +2772,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111251437</v>
+        <v>111251434</v>
       </c>
       <c r="B20" t="n">
-        <v>78611</v>
+        <v>78612</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2788,21 +2788,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6463</v>
+        <v>6464</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111251420</v>
+        <v>111251437</v>
       </c>
       <c r="B21" t="n">
-        <v>77677</v>
+        <v>78611</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2896,25 +2896,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1249</v>
+        <v>6463</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2924,10 +2924,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>460243.4530616797</v>
+        <v>460452.9763639791</v>
       </c>
       <c r="R21" t="n">
-        <v>7164800.429238674</v>
+        <v>7164846.208533676</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2996,10 +2996,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111251428</v>
+        <v>111251430</v>
       </c>
       <c r="B22" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3012,21 +3012,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>460445.0942901828</v>
+        <v>460188.8289468794</v>
       </c>
       <c r="R22" t="n">
-        <v>7164835.148113105</v>
+        <v>7164863.831099218</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>

--- a/artfynd/A 718-2021.xlsx
+++ b/artfynd/A 718-2021.xlsx
@@ -2100,10 +2100,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111251423</v>
+        <v>111251432</v>
       </c>
       <c r="B14" t="n">
-        <v>77677</v>
+        <v>81248</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2112,25 +2112,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1249</v>
+        <v>1312</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2140,10 +2140,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>460188.7895233887</v>
+        <v>460622.5513675315</v>
       </c>
       <c r="R14" t="n">
-        <v>7164860.82616597</v>
+        <v>7165027.330594921</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111251432</v>
+        <v>111251407</v>
       </c>
       <c r="B15" t="n">
-        <v>81248</v>
+        <v>73696</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2228,21 +2228,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>460622.5513675315</v>
+        <v>460240.5118381025</v>
       </c>
       <c r="R15" t="n">
-        <v>7165027.330594921</v>
+        <v>7164805.620072429</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2324,10 +2324,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111251420</v>
+        <v>111251402</v>
       </c>
       <c r="B16" t="n">
-        <v>77677</v>
+        <v>73696</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2336,25 +2336,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1249</v>
+        <v>6440</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2364,10 +2364,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>460243.4530616797</v>
+        <v>460212.3128264685</v>
       </c>
       <c r="R16" t="n">
-        <v>7164800.429238674</v>
+        <v>7164818.870384302</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111251407</v>
+        <v>111251434</v>
       </c>
       <c r="B17" t="n">
-        <v>73696</v>
+        <v>78612</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2448,25 +2448,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6440</v>
+        <v>6464</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>460240.5118381025</v>
+        <v>460452.9763639791</v>
       </c>
       <c r="R17" t="n">
-        <v>7164805.620072429</v>
+        <v>7164846.208533676</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2548,10 +2548,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111251428</v>
+        <v>111251423</v>
       </c>
       <c r="B18" t="n">
-        <v>89423</v>
+        <v>77677</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2560,25 +2560,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>1249</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2588,10 +2588,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>460445.0942901828</v>
+        <v>460188.7895233887</v>
       </c>
       <c r="R18" t="n">
-        <v>7164835.148113105</v>
+        <v>7164860.82616597</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2660,10 +2660,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111251402</v>
+        <v>111251428</v>
       </c>
       <c r="B19" t="n">
-        <v>73696</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2676,21 +2676,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>460212.3128264685</v>
+        <v>460445.0942901828</v>
       </c>
       <c r="R19" t="n">
-        <v>7164818.870384302</v>
+        <v>7164835.148113105</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2772,10 +2772,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111251434</v>
+        <v>111251430</v>
       </c>
       <c r="B20" t="n">
-        <v>78612</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2784,25 +2784,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2812,10 +2812,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>460452.9763639791</v>
+        <v>460188.8289468794</v>
       </c>
       <c r="R20" t="n">
-        <v>7164846.208533676</v>
+        <v>7164863.831099218</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2996,10 +2996,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111251430</v>
+        <v>111251420</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>77677</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3008,25 +3008,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>1249</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>460188.8289468794</v>
+        <v>460243.4530616797</v>
       </c>
       <c r="R22" t="n">
-        <v>7164863.831099218</v>
+        <v>7164800.429238674</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
